--- a/DESEMBOLSOS.xlsx
+++ b/DESEMBOLSOS.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>FECHA</t>
   </si>
@@ -48,17 +48,254 @@
     <t>MONTO</t>
   </si>
   <si>
-    <t>MONTO+IGV</t>
-  </si>
-  <si>
     <t>AGENCIA</t>
+  </si>
+  <si>
+    <t>MOTON+IGV</t>
+  </si>
+  <si>
+    <t>Veli Salome Maritza Estelista</t>
+  </si>
+  <si>
+    <t>20099804</t>
+  </si>
+  <si>
+    <t>HYO</t>
+  </si>
+  <si>
+    <t>Cosinga Muñoz Oscar</t>
+  </si>
+  <si>
+    <t>41233215</t>
+  </si>
+  <si>
+    <t>Arzapalo Yali Magloria</t>
+  </si>
+  <si>
+    <t>20884719</t>
+  </si>
+  <si>
+    <t>Berrocal Cutti Yuddy Mary</t>
+  </si>
+  <si>
+    <t>20081830</t>
+  </si>
+  <si>
+    <t>Roman Nuñez Deissy Kelly</t>
+  </si>
+  <si>
+    <t>70344033</t>
+  </si>
+  <si>
+    <t>Alzamora Asparren Yuseluz</t>
+  </si>
+  <si>
+    <t>75420898</t>
+  </si>
+  <si>
+    <t>Urco Martinez Javier</t>
+  </si>
+  <si>
+    <t>41587845</t>
+  </si>
+  <si>
+    <t>Alvarez Chancavilca Maribel</t>
+  </si>
+  <si>
+    <t>80009379</t>
+  </si>
+  <si>
+    <t>Lizarraga Gamboa Heidi</t>
+  </si>
+  <si>
+    <t>42409927</t>
+  </si>
+  <si>
+    <t>Juycapusa Donato Beatriz</t>
+  </si>
+  <si>
+    <t>48075159</t>
+  </si>
+  <si>
+    <t>Gutierrez Benites Manuel Jose</t>
+  </si>
+  <si>
+    <t>19841990</t>
+  </si>
+  <si>
+    <t>Lozano Tolentino Cesar Giuseppe</t>
+  </si>
+  <si>
+    <t>44327507</t>
+  </si>
+  <si>
+    <t>Villegas Soncco Bartolome</t>
+  </si>
+  <si>
+    <t>22079669</t>
+  </si>
+  <si>
+    <t>Inga Surichaqui Luz Medalit</t>
+  </si>
+  <si>
+    <t>45273109</t>
+  </si>
+  <si>
+    <t>Castro Ordoñez Jhensen Alberto</t>
+  </si>
+  <si>
+    <t>71934345</t>
+  </si>
+  <si>
+    <t>HCVA</t>
+  </si>
+  <si>
+    <t>Llamoca Echavigurin Wilfredo</t>
+  </si>
+  <si>
+    <t>23274189</t>
+  </si>
+  <si>
+    <t>Campos Ñahui Fabian</t>
+  </si>
+  <si>
+    <t>20058855</t>
+  </si>
+  <si>
+    <t>Condori Villegas Luis Alberto</t>
+  </si>
+  <si>
+    <t>46086857</t>
+  </si>
+  <si>
+    <t>Quispe Acevedo Katty Jany</t>
+  </si>
+  <si>
+    <t>75438693</t>
+  </si>
+  <si>
+    <t>Molina Carhuapoma Elsa</t>
+  </si>
+  <si>
+    <t>80612379</t>
+  </si>
+  <si>
+    <t>Huamani Villa Margarita Reyna</t>
+  </si>
+  <si>
+    <t>40079927</t>
+  </si>
+  <si>
+    <t>Gomez Ledesma Miriam</t>
+  </si>
+  <si>
+    <t>76053365</t>
+  </si>
+  <si>
+    <t>PAMPAS</t>
+  </si>
+  <si>
+    <t>Quispe Ramirez Diego Erick</t>
+  </si>
+  <si>
+    <t>75438022</t>
+  </si>
+  <si>
+    <t>Mucha Pecar Josue</t>
+  </si>
+  <si>
+    <t>74353777</t>
+  </si>
+  <si>
+    <t>Curo Limache Maribel Vanesa</t>
+  </si>
+  <si>
+    <t>47187062</t>
+  </si>
+  <si>
+    <t>Perez Torrecillas Julia Anasta</t>
+  </si>
+  <si>
+    <t>42258250</t>
+  </si>
+  <si>
+    <t>Chamorro Dolorier Maria Elena</t>
+  </si>
+  <si>
+    <t>23702995</t>
+  </si>
+  <si>
+    <t>Palomino Chamorro Shintia Pamela</t>
+  </si>
+  <si>
+    <t>44310154</t>
+  </si>
+  <si>
+    <t>Barreto Gutierrez Virgilio</t>
+  </si>
+  <si>
+    <t>45483907</t>
+  </si>
+  <si>
+    <t>Gutierrez Escobar Doris Maribel</t>
+  </si>
+  <si>
+    <t>43581987</t>
+  </si>
+  <si>
+    <t>TAMBO</t>
+  </si>
+  <si>
+    <t>Gonzales Campos Wilmer</t>
+  </si>
+  <si>
+    <t>43245189</t>
+  </si>
+  <si>
+    <t>Taquire Huayre Waldir</t>
+  </si>
+  <si>
+    <t>76956102</t>
+  </si>
+  <si>
+    <t>Huamani Alanya Edwin Carlos</t>
+  </si>
+  <si>
+    <t>42610146</t>
+  </si>
+  <si>
+    <t>Romero Enriquez Delia Juliana</t>
+  </si>
+  <si>
+    <t>45458112</t>
+  </si>
+  <si>
+    <t>CHILCA</t>
+  </si>
+  <si>
+    <t>Rosales Zevallos Elizabeth Nancy</t>
+  </si>
+  <si>
+    <t>41708355</t>
+  </si>
+  <si>
+    <t>Vargas Mallqui Kevin Williams</t>
+  </si>
+  <si>
+    <t>72076036</t>
+  </si>
+  <si>
+    <t>Coca Vda De Takach Elvira Catalina</t>
+  </si>
+  <si>
+    <t>20991479</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -69,14 +306,60 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,12 +374,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,90 +775,1312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
+    <row r="2" spans="1:12">
+      <c r="A2" s="12">
+        <v>448</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12">
+        <v>114.40677966101696</v>
+      </c>
+      <c r="E2" s="13">
+        <f t="shared" ref="E2:E39" si="0">(D2*0.18)+D2</f>
+        <v>135</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="15">
+        <v>44628</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="12">
+        <v>449</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12">
+        <v>94.915254237288138</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="15">
+        <v>44628</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="12">
+        <v>450</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12">
+        <v>25.423728813559322</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="15">
+        <v>44628</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="12">
+        <v>451</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12">
+        <v>59.661016949152547</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="15">
+        <v>44628</v>
+      </c>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="12">
+        <v>452</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="12">
+        <v>69.915254237288138</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15">
+        <v>44628</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="12">
+        <v>453</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12">
+        <v>24.067796610169491</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>28.4</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15">
+        <v>44628</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12">
+        <v>454</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="12">
+        <v>68.474576271186436</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>80.8</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="15">
+        <v>44628</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1">
+      <c r="A9" s="12">
+        <v>455</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12">
+        <v>114.40677966101696</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="12">
+        <v>456</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12">
+        <v>274.57627118644069</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="15">
+        <v>44628</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12">
+        <v>457</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="12">
+        <v>33.898305084745765</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="15">
+        <v>44628</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1">
+      <c r="A12" s="12">
+        <v>458</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12">
+        <v>105.93220338983052</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>125.00000000000001</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="15">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="12">
+        <v>459</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12">
+        <v>35.593220338983052</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="15">
+        <v>44628</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="12">
+        <v>460</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="12">
+        <v>116.10169491525424</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="15">
+        <v>44628</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="12">
+        <v>461</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12">
+        <v>116.61016949152543</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>137.6</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="15">
+        <v>44628</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9">
+        <v>275</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9">
+        <v>16.779661016949156</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>19.800000000000004</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="11">
+        <v>44628</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9">
+        <v>276</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="9">
+        <v>213.55932203389833</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>252.00000000000003</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="11">
+        <v>44628</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9">
+        <v>277</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9">
+        <v>254.23728813559325</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="11">
+        <v>44628</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1">
+      <c r="A19" s="9">
+        <v>278</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="9">
+        <v>88.983050847457633</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="11">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9">
+        <v>279</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="9">
+        <v>104.40677966101696</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>123.2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="11">
+        <v>44628</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9">
+        <v>280</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="9">
+        <v>31.779661016949156</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="11">
+        <v>44628</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9">
+        <v>281</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="9">
+        <v>92.20338983050847</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>108.8</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="11">
+        <v>44628</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="16">
+        <v>262</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="16">
+        <v>73.220338983050851</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="0"/>
+        <v>86.4</v>
+      </c>
+      <c r="F23" s="19">
+        <v>3</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="18">
+        <v>44628</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="16">
+        <v>263</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="16">
+        <v>15.254237288135593</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F24" s="19">
+        <v>3</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="18">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="16">
+        <v>264</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="16">
+        <v>149.15254237288136</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="F25" s="19">
+        <v>3</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="18">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="16">
+        <v>265</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="16">
+        <v>97.627118644067806</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="0"/>
+        <v>115.20000000000002</v>
+      </c>
+      <c r="F26" s="19">
+        <v>3</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="18">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="16">
+        <v>266</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="16">
+        <v>85.593220338983059</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="0"/>
+        <v>101.00000000000001</v>
+      </c>
+      <c r="F27" s="19">
+        <v>3</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="18">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="16">
+        <v>267</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="16">
+        <v>169.49152542372883</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="0"/>
+        <v>200.00000000000003</v>
+      </c>
+      <c r="F28" s="19">
+        <v>3</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="18">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="16">
+        <v>268</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="16">
+        <v>152.54237288135593</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F29" s="19">
+        <v>3</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="18">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="16">
+        <v>269</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="16">
+        <v>85.593220338983059</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="0"/>
+        <v>101.00000000000001</v>
+      </c>
+      <c r="F30" s="19">
+        <v>3</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="18">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="20">
+        <v>248</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="20">
+        <v>152.54237288135593</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F31" s="22">
+        <v>4</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="23">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="20">
+        <v>249</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="20">
+        <v>83.389830508474589</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="0"/>
+        <v>98.40000000000002</v>
+      </c>
+      <c r="F32" s="22">
+        <v>4</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="23">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="20">
+        <v>250</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="20">
+        <v>47.457627118644069</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F33" s="22">
+        <v>4</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="23">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="20">
+        <v>251</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="20">
+        <v>463.05084745762713</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="0"/>
+        <v>546.4</v>
+      </c>
+      <c r="F34" s="22">
+        <v>4</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="23">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="24">
+        <v>180</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="24">
+        <v>50.847457627118644</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F35" s="26">
+        <v>5</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="27">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="24">
+        <v>181</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="24">
+        <v>94.915254237288138</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F36" s="26">
+        <v>5</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="27">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="24">
+        <v>182</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="24">
+        <v>37.966101694915253</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="0"/>
+        <v>44.8</v>
+      </c>
+      <c r="F37" s="26">
+        <v>5</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="27">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="24">
+        <v>183</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="24">
+        <v>40.677966101694921</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="0"/>
+        <v>48.000000000000007</v>
+      </c>
+      <c r="F38" s="26">
+        <v>5</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="27">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="24">
+        <v>184</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="24">
+        <v>135.59322033898306</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="F39" s="26">
+        <v>5</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="27">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4"/>
+      <c r="B53" s="1"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4"/>
+      <c r="B54" s="1"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="1"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="F56" s="4"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="F57" s="4"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="F58" s="4"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="F59" s="4"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="F60" s="4"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="F61" s="4"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="F62" s="4"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="1"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="F64" s="4"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" s="4"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="6:8">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="6:8">
+      <c r="H68" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DESEMBOLSOS.xlsx
+++ b/DESEMBOLSOS.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>FECHA</t>
   </si>
@@ -54,136 +54,106 @@
     <t>MOTON+IGV</t>
   </si>
   <si>
-    <t>Capcha Meza Lisset Regina</t>
-  </si>
-  <si>
-    <t>47170739</t>
+    <t>Chavez Corilloclla Rosa Angelica</t>
+  </si>
+  <si>
+    <t>04070624</t>
   </si>
   <si>
     <t>HYO</t>
   </si>
   <si>
-    <t>Safora Untiveros Yone Miguel</t>
-  </si>
-  <si>
-    <t>80519254</t>
-  </si>
-  <si>
-    <t>Illesca Rojas Maycol Felipe</t>
-  </si>
-  <si>
-    <t>76374099</t>
-  </si>
-  <si>
-    <t>Toribio Espinoza Henry</t>
-  </si>
-  <si>
-    <t>47723055</t>
-  </si>
-  <si>
-    <t>Huaman Ramos Giovana</t>
-  </si>
-  <si>
-    <t>40635972</t>
-  </si>
-  <si>
-    <t>Alcedo Huaman Susy Yulisa</t>
-  </si>
-  <si>
-    <t>76331517</t>
-  </si>
-  <si>
-    <t>Gomez Baltazar Gian Marco</t>
-  </si>
-  <si>
-    <t>47974301</t>
-  </si>
-  <si>
-    <t>HCVA</t>
-  </si>
-  <si>
-    <t>Albildo Huaman Lizeth Del Carmen</t>
-  </si>
-  <si>
-    <t>71248505</t>
-  </si>
-  <si>
-    <t>Sullca Quispe Consuelo</t>
-  </si>
-  <si>
-    <t>23269501</t>
-  </si>
-  <si>
-    <t>Tinoco Chumbes Patricia Marisol</t>
-  </si>
-  <si>
-    <t>23271714</t>
-  </si>
-  <si>
-    <t>Ramos Machuca Yesenia Hermosa</t>
-  </si>
-  <si>
-    <t>45870735</t>
-  </si>
-  <si>
-    <t>Aguirre Astete Xiomara Joselyn</t>
-  </si>
-  <si>
-    <t>70243351</t>
+    <t>Maldonado Pizarro De Vila Marcelina</t>
+  </si>
+  <si>
+    <t>19845870</t>
+  </si>
+  <si>
+    <t>Espinoza Saez Jesus</t>
+  </si>
+  <si>
+    <t>48275547</t>
+  </si>
+  <si>
+    <t>Contreras Arroyo Margarita</t>
+  </si>
+  <si>
+    <t>10686473</t>
+  </si>
+  <si>
+    <t>Criollo Gonzales Beatriz</t>
+  </si>
+  <si>
+    <t>45876768</t>
+  </si>
+  <si>
+    <t>Fernandez Rojas Edison Saul</t>
+  </si>
+  <si>
+    <t>73076226</t>
+  </si>
+  <si>
+    <t>42276658</t>
+  </si>
+  <si>
+    <t>Matos Aguilar Edgar Antonio</t>
+  </si>
+  <si>
+    <t>20016711</t>
+  </si>
+  <si>
+    <t>Condor Quincho Luisa Isabel</t>
+  </si>
+  <si>
+    <t>10044737</t>
+  </si>
+  <si>
+    <t>PAMPAS</t>
+  </si>
+  <si>
+    <t>Ramos Mendoza Celso Efrain</t>
+  </si>
+  <si>
+    <t>41687066</t>
+  </si>
+  <si>
+    <t>Choque Tovar Elisa</t>
+  </si>
+  <si>
+    <t>40194382</t>
   </si>
   <si>
     <t>TAMBO</t>
   </si>
   <si>
-    <t>Meza Quispe Pool Alejandro</t>
-  </si>
-  <si>
-    <t>74253737</t>
-  </si>
-  <si>
-    <t>Rojas Mauricio Victor Raul</t>
-  </si>
-  <si>
-    <t>42943814</t>
-  </si>
-  <si>
-    <t>Reynoso Araujo Tania</t>
-  </si>
-  <si>
-    <t>20566408</t>
-  </si>
-  <si>
-    <t>Quijada Ramos Rodolfo</t>
-  </si>
-  <si>
-    <t>20040116</t>
-  </si>
-  <si>
-    <t>Mallma Rutti Angela Jasmin</t>
-  </si>
-  <si>
-    <t>72448243</t>
+    <t>Orizano Cordova Elias Santos</t>
+  </si>
+  <si>
+    <t>20118170</t>
+  </si>
+  <si>
+    <t>Chuco Castro Teresa</t>
+  </si>
+  <si>
+    <t>20030603</t>
+  </si>
+  <si>
+    <t>Capcha Sinche Estefania</t>
+  </si>
+  <si>
+    <t>19882165</t>
+  </si>
+  <si>
+    <t>42491411</t>
   </si>
   <si>
     <t>CHILCA</t>
   </si>
   <si>
-    <t>Salome Alva Misael Jose</t>
-  </si>
-  <si>
-    <t>41736597</t>
-  </si>
-  <si>
-    <t>Limaylla Gamarra Derlys Aerley</t>
-  </si>
-  <si>
-    <t>75883431</t>
-  </si>
-  <si>
-    <t>Perez Rivas Yuri Flinder</t>
-  </si>
-  <si>
-    <t>47848717</t>
+    <t>Vilca Munoz Sara</t>
+  </si>
+  <si>
+    <t>Rivas Castaneda Michael Jhon</t>
   </si>
 </sst>
 </file>
@@ -228,6 +198,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,12 +211,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -268,12 +238,13 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -653,7 +624,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -691,571 +662,484 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="11">
-        <v>535</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="9">
+        <v>541</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11">
-        <v>35.593220338983052</v>
-      </c>
-      <c r="E2" s="12">
-        <f t="shared" ref="E2:E21" si="0">(D2*0.18)+D2</f>
-        <v>42</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="D2" s="9">
+        <v>104.40677966101696</v>
+      </c>
+      <c r="E2" s="10">
+        <f t="shared" ref="E2:E16" si="0">(D2*0.18)+D2</f>
+        <v>123.2</v>
+      </c>
+      <c r="F2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="14">
-        <v>44638</v>
+      <c r="H2" s="12">
+        <v>44639</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="11">
-        <v>536</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="9">
+        <v>542</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11">
-        <v>114.49152542372882</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="D3" s="9">
+        <v>63.13559322033899</v>
+      </c>
+      <c r="E3" s="10">
         <f t="shared" si="0"/>
-        <v>135.1</v>
-      </c>
-      <c r="F3" s="13">
+        <v>74.5</v>
+      </c>
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14">
-        <v>44638</v>
+      <c r="H3" s="12">
+        <v>44639</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="11">
-        <v>537</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9">
+        <v>543</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11">
-        <v>71.186440677966104</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="9">
+        <v>38.474576271186443</v>
+      </c>
+      <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="F4" s="13">
+        <v>45.400000000000006</v>
+      </c>
+      <c r="F4" s="11">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="14">
-        <v>44638</v>
+      <c r="H4" s="12">
+        <v>44639</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="11">
-        <v>538</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9">
+        <v>544</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11">
-        <v>59.661016949152547</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="9">
+        <v>14.40677966101695</v>
+      </c>
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="F5" s="13">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14">
-        <v>44638</v>
+      <c r="H5" s="12">
+        <v>44639</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="11">
-        <v>539</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="9">
+        <v>545</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11">
-        <v>59.661016949152547</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="9">
+        <v>77.288135593220346</v>
+      </c>
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="F6" s="13">
+        <v>91.2</v>
+      </c>
+      <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="14">
-        <v>44638</v>
+      <c r="H6" s="12">
+        <v>44639</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="11">
-        <v>540</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="9">
+        <v>546</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11">
-        <v>59.661016949152547</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="9">
+        <v>20.33898305084746</v>
+      </c>
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="F7" s="13">
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="14">
-        <v>44638</v>
+      <c r="H7" s="12">
+        <v>44639</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9">
-        <v>327</v>
+        <v>547</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="9">
-        <v>50.847457627118644</v>
-      </c>
-      <c r="E8" s="15">
+        <v>34.576271186440678</v>
+      </c>
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="10">
-        <v>44638</v>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12">
+        <v>44639</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1">
       <c r="A9" s="9">
-        <v>328</v>
+        <v>548</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9">
+        <v>101.86440677966102</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>120.2</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="12">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13">
+        <v>317</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9">
-        <v>30.508474576271187</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="D10" s="13">
+        <v>127.54237288135594</v>
+      </c>
+      <c r="E10" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="10">
-        <v>44638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9">
-        <v>329</v>
-      </c>
-      <c r="B10" s="9" t="s">
+        <v>150.5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="H10" s="16">
+        <v>44639</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13">
+        <v>318</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9">
-        <v>50.847457627118644</v>
-      </c>
-      <c r="E10" s="15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="10">
-        <v>44638</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="9">
-        <v>330</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="9">
-        <v>25.423728813559322</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="10">
-        <v>44638</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1">
-      <c r="A12" s="9">
-        <v>331</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="9">
-        <v>50.847457627118644</v>
-      </c>
-      <c r="E12" s="15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="10">
-        <v>44638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="16">
-        <v>285</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="D11" s="13">
         <v>68.474576271186436</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>80.8</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F11" s="15">
+        <v>3</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="16">
+        <v>44639</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1">
+      <c r="A12" s="17">
+        <v>290</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="17">
+        <v>27.118644067796613</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F12" s="19">
         <v>4</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="20">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="17">
+        <v>291</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17">
+        <v>81.355932203389841</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="0"/>
+        <v>96.000000000000014</v>
+      </c>
+      <c r="F13" s="19">
+        <v>4</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="20">
+        <v>44639</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="17">
+        <v>292</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="19">
-        <v>44638</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="16">
-        <v>286</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="16">
-        <v>35.932203389830512</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="D14" s="17">
+        <v>51.525423728813557</v>
+      </c>
+      <c r="E14" s="18">
         <f t="shared" si="0"/>
-        <v>42.400000000000006</v>
-      </c>
-      <c r="F14" s="18">
+        <v>60.8</v>
+      </c>
+      <c r="F14" s="19">
         <v>4</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="19">
-        <v>44638</v>
+      <c r="G14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="20">
+        <v>44639</v>
       </c>
       <c r="J14" s="1"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="16">
-        <v>287</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="17">
+        <v>293</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="17">
+        <v>18.135593220338983</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="0"/>
+        <v>21.4</v>
+      </c>
+      <c r="F15" s="19">
+        <v>4</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="20">
+        <v>44639</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="5">
+        <v>214</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="16">
-        <v>59.661016949152547</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D16" s="5">
+        <v>237.28813559322035</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="F15" s="18">
-        <v>4</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="19">
-        <v>44638</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="16">
-        <v>288</v>
-      </c>
-      <c r="B16" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="16">
-        <v>12.881355932203389</v>
-      </c>
-      <c r="E16" s="17">
-        <f t="shared" si="0"/>
-        <v>15.2</v>
-      </c>
-      <c r="F16" s="18">
-        <v>4</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="19">
-        <v>44638</v>
+      <c r="H16" s="6">
+        <v>44639</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="16">
-        <v>289</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="16">
-        <v>76.271186440677965</v>
-      </c>
-      <c r="E17" s="17">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="F17" s="18">
-        <v>4</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="19">
-        <v>44638</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="6"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="5">
-        <v>210</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="5">
-        <v>152.54237288135593</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="6">
-        <v>44638</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="6"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1">
-      <c r="A19" s="5">
-        <v>211</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="5">
-        <v>9.6610169491525433</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>11.4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="6">
-        <v>44638</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="5">
-        <v>212</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="5">
-        <v>14.237288135593221</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>16.8</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="6">
-        <v>44638</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="6"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="5">
-        <v>213</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="5">
-        <v>135.59322033898306</v>
-      </c>
-      <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="6">
-        <v>44638</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="6"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:12">
